--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560327/JX560327_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560327/JX560327_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89299352472</v>
+        <v>45441.83325511853</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1379_1382instac']</t>
+          <t>['1293_1359del', '1412_1537instttctctcagatccaaagggccaatgagttgaattaccatagggttctcatgaggcggacgatcaatttgcgacttgggctacaccagttcctgtccgggggctccagtacctaagggcaggcga', '1244_1329del', '1285_1423insacctcagtcctggccacgctctttgaaaataatgggccatgcagtcaacctcaagcctgggatgctcttcgacggcacagaagcatcttcgtaggagtttgatcgactgggacaggtctatcccctgaacaaaatgat', '1408_1449del']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89299355366</v>
+        <v>45441.83325514747</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['195_198del']</t>
+          <t>['172_245insggttgattaggtaaagctctgctgatgtgaaaagtgccgttcctcctatccaacggtgtaacccattgcgtaa', '214_300insgtacggttccaaactcgggggtcagccgtcaacactaatgcctgtccgtacctgcccgtgagggtttgtaagccgcctacttcttg', '158_255insttagtcggggacaaaagtgccgatctgataagatgtacctgtaatgatcagtaattcacgagctcgcgttataacctgctctccaagaccctcacga', '155_180insatggctaaggcctactggtgactcc', '214_268del']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.8929935768</v>
+        <v>45441.83325517061</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['3778_3778del']</t>
+          <t>['3752_3780del', '3781_3918insgagctactaggcggattacggtggcgtagcatggaattcgccgatggccaggggagtcttctgctcacagaccagatcacggtacggtgtataatcgcaatagtccccgccttctccaggcgagggtgttcggcaag', '3808_3861del', '3730_3752inscgtacgaagaatatagcattgt', '3816_3872insagttagatttggtgtgtgaagcctaaccgacgtatgacgtcgtgaagagtagtgct']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89299359995</v>
+        <v>45441.83325531037</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1247_1250insggc']</t>
+          <t>['1351_1460insaggcgcgaccttttacctggttatacttaggacgagcatctcagccacgcgacaagtatccagtagcggcacttaattcccccatcagctgcggtctctgtgttctcag', '1278_1408del', '1331_1356insttgatagctacgatggaaacttagc', '1467_1596insagggttcattttgcaaggcctaacgtgtagaacacgactgatttgagccaatatatacgtccgtgcggcgctgacatccatcttccatgttactacaggtgtgaagtgcgccggaccgcccagcgataa', '1443_1535insggtattacagacctagatcctcgcaccgtgggtcccaatacgagacctgccgtacccacccatattagaggatggtgaattacggatgcgcc']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['200_203del']</t>
+          <t>['225_302del', '207_267del', '176_235insggaaccgcgattatgaaagcgcctagattctagagttgagtcactcctttccccatggg', '223_339del', '250_295insattattgccatgtgatagaccgcgattcgtgcctgagaaggctgg']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.8929936231</v>
+        <v>45441.8332553393</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1370a&gt;c']</t>
+          <t>['1282_1298instatcttcgctgctgcg', '1429_1488insacgtcttattgcgaagacacttagttatgcgagcgtggtctgtcttacgtagtattcta', '1358_1432insccacaacagtagaccgttcattcgatcataggtccccgatgtagtaagcagttaccagtcatgatgcgctcggg', '1379_1508inscacctgtcatctccccctcccggaagcctgttcgatgggtccggagttgcggggcatccctcaaccataaatcggacacagtccgattacttagagcttcgcaggccggcccgcttgcagagcaaggtt', '1272_1293insaataacaccaaccaaccgaca']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3773_3774del']</t>
+          <t>['3757_3857insagaagtttctttatttgtatgatcacgcgccccacatgctcatgaaatgatgggtatcaccccttcttttagtcacgtgcgcagaatgaaactgggcgtg', '3765_3913del', '3742_3813insagtgactggtcggaccggtatgccagaatgggccctgaagatagccgtgtagtagtcatgctcgaccactt', '3796_3939insagcttatacgatcgttgaaggtatgttgcggttacatagtcaagtcgcctgactgtgtccaaccagtgaggtctgacgcgcttgagtgctcaatataggcccgtcgaggcgggtgtatgacgggtccgaataggtgccgagct', '3763_3832instattaatgtcacagtcccgctcacccctgcaagctctatgcggaacgttattactagagggaaagtctc']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89299364624</v>
+        <v>45441.83325536244</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['197_200del']</t>
+          <t>['163_223del', '195_219insattcgattcatcaggtgcaggcga', '190_310insgagacgggatactcccggaaggcaaatggagatttaagatgtacattgcgttagggggatctaacagacaataatctgactatttctgttaacaatacgtagcgggtcggcgtcatgatg', '190_287del', '246_322instttacgctgcgtcggacggttatttataggtcgttcagccgacgcctagcgtaagggtgacctgatgggaacgcca']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3720t&gt;c']</t>
+          <t>['3795_3905inscatcagggaccaggcagccctctgtacattgaatggccgcgattcgacctgtctccacaggcggagtcgatggctttatccgtcaggcttcagcgacggtgcgtcagaaa', '3750_3848insgcatatccggtcatgtagtcctttggcaagacactcgttttgcgaatcccgatagaagaaagtccaccattgcaatgtagcagctcaacgtgcccttg', '3790_3869del', '3733_3838insaccctcaagtaggctgtggtagtcgagtgtgtacaaggtaagcagggacgatccgtcgttgacaagaagattataataatgcgtttcagcggaagcacaacgatg', '3725_3782insgtcggtaaacataggtatccgcggtctgtatctggtcctgggcccggatggaggata']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.8929936694</v>
+        <v>45441.83325538558</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1262_1266del']</t>
+          <t>['1411_1442del', '1419_1446del', '1379_1463del', '1241_1319insttcaaaagtagacgggacctgaataaaccgagacacagcgacccgaggatctacaagcccatagaaaactttaggcag', '1276_1322del']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['199_203inscgat']</t>
+          <t>['193_335inscgcgtgtgcacatgccccgcctccatttcgatggcactcccactagcgccctaggtcaccaactctcttctgacgttgatcactcgtcacgggacccattactacaaaaattccaaagatcaacattcaggtacccaacgga', '206_285insgcgtcaaggactgatagcatcaccaggggggggtgatggctgcgtttccactctctagtgccgcaaagcttgggtgggt', '228_342instactcaaaccgcccttttcaaattgttctcaagatcacgcagtgatataaccgtagtgacaatcaatacatttaccattcaatttatcgtgtctccaagtgcgggaagactttc', '186_279del', '218_340del']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3818_3821insgcg']</t>
+          <t>['3771_3889inscgttgcaagcgctatgaacaggcccgtgtccgcccctggggtgacggggtgttcttcccgtccgtctggatacctgtacggctgcgcttagtttttccatggctgcaggcccatcaga', '3778_3844del', '3736_3859instggaagtccgtcacatgacctcaaacggcgttaggaggtaacaacctggtgaccctatccaaacctacaatccaaaagaccacgccccagcttgtggggtcgctaggccctcaactctctcga', '3795_3839del', '3785_3933del']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89299369256</v>
+        <v>45441.83325540872</v>
       </c>
     </row>
   </sheetData>
